--- a/LIBA14/files/Q16.xlsx
+++ b/LIBA14/files/Q16.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\LIBA14\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D73F758-3F30-4A05-BF72-3808892A090C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379CF747-B630-46D3-8035-539159347804}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="36" windowWidth="14352" windowHeight="4956" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="244">
   <si>
     <t>Name</t>
   </si>
@@ -754,12 +754,6 @@
   </si>
   <si>
     <t>Employee ID – Must start with a character followed by numbers of 5 digits</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2312,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E61"/>
@@ -2343,1014 +2337,6 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" t="s">
-        <v>244</v>
-      </c>
-      <c r="E21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>244</v>
-      </c>
-      <c r="B24" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" t="s">
-        <v>245</v>
-      </c>
-      <c r="D24" t="s">
-        <v>244</v>
-      </c>
-      <c r="E24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" t="s">
-        <v>245</v>
-      </c>
-      <c r="E25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" t="s">
-        <v>244</v>
-      </c>
-      <c r="E27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>244</v>
-      </c>
-      <c r="B28" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>244</v>
-      </c>
-      <c r="B29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" t="s">
-        <v>244</v>
-      </c>
-      <c r="E29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C30" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" t="s">
-        <v>244</v>
-      </c>
-      <c r="C31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D31" t="s">
-        <v>244</v>
-      </c>
-      <c r="E31" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C32" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" t="s">
-        <v>244</v>
-      </c>
-      <c r="E32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>244</v>
-      </c>
-      <c r="B33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" t="s">
-        <v>245</v>
-      </c>
-      <c r="D33" t="s">
-        <v>244</v>
-      </c>
-      <c r="E33" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>244</v>
-      </c>
-      <c r="B34" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" t="s">
-        <v>245</v>
-      </c>
-      <c r="D34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E34" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>244</v>
-      </c>
-      <c r="B35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D35" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>244</v>
-      </c>
-      <c r="B36" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" t="s">
-        <v>245</v>
-      </c>
-      <c r="E36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B37" t="s">
-        <v>244</v>
-      </c>
-      <c r="C37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" t="s">
-        <v>245</v>
-      </c>
-      <c r="E37" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>244</v>
-      </c>
-      <c r="B38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C38" t="s">
-        <v>245</v>
-      </c>
-      <c r="D38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>244</v>
-      </c>
-      <c r="B39" t="s">
-        <v>244</v>
-      </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
-      <c r="D39" t="s">
-        <v>245</v>
-      </c>
-      <c r="E39" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B40" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D40" t="s">
-        <v>245</v>
-      </c>
-      <c r="E40" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>244</v>
-      </c>
-      <c r="B41" t="s">
-        <v>245</v>
-      </c>
-      <c r="C41" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" t="s">
-        <v>245</v>
-      </c>
-      <c r="E41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" t="s">
-        <v>245</v>
-      </c>
-      <c r="D42" t="s">
-        <v>245</v>
-      </c>
-      <c r="E42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>244</v>
-      </c>
-      <c r="B43" t="s">
-        <v>245</v>
-      </c>
-      <c r="C43" t="s">
-        <v>245</v>
-      </c>
-      <c r="D43" t="s">
-        <v>245</v>
-      </c>
-      <c r="E43" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>244</v>
-      </c>
-      <c r="B44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C44" t="s">
-        <v>245</v>
-      </c>
-      <c r="D44" t="s">
-        <v>245</v>
-      </c>
-      <c r="E44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>244</v>
-      </c>
-      <c r="B45" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" t="s">
-        <v>245</v>
-      </c>
-      <c r="D45" t="s">
-        <v>245</v>
-      </c>
-      <c r="E45" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" t="s">
-        <v>244</v>
-      </c>
-      <c r="C46" t="s">
-        <v>245</v>
-      </c>
-      <c r="D46" t="s">
-        <v>245</v>
-      </c>
-      <c r="E46" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>244</v>
-      </c>
-      <c r="B47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C47" t="s">
-        <v>245</v>
-      </c>
-      <c r="D47" t="s">
-        <v>245</v>
-      </c>
-      <c r="E47" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B48" t="s">
-        <v>244</v>
-      </c>
-      <c r="C48" t="s">
-        <v>245</v>
-      </c>
-      <c r="D48" t="s">
-        <v>245</v>
-      </c>
-      <c r="E48" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>244</v>
-      </c>
-      <c r="B49" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" t="s">
-        <v>245</v>
-      </c>
-      <c r="D49" t="s">
-        <v>245</v>
-      </c>
-      <c r="E49" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>244</v>
-      </c>
-      <c r="B50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C50" t="s">
-        <v>245</v>
-      </c>
-      <c r="D50" t="s">
-        <v>245</v>
-      </c>
-      <c r="E50" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>244</v>
-      </c>
-      <c r="B51" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" t="s">
-        <v>245</v>
-      </c>
-      <c r="D51" t="s">
-        <v>245</v>
-      </c>
-      <c r="E51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>244</v>
-      </c>
-      <c r="B52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C52" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" t="s">
-        <v>245</v>
-      </c>
-      <c r="E52" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>244</v>
-      </c>
-      <c r="B53" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" t="s">
-        <v>245</v>
-      </c>
-      <c r="D53" t="s">
-        <v>245</v>
-      </c>
-      <c r="E53" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>244</v>
-      </c>
-      <c r="B54" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" t="s">
-        <v>245</v>
-      </c>
-      <c r="D54" t="s">
-        <v>244</v>
-      </c>
-      <c r="E54" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" t="s">
-        <v>244</v>
-      </c>
-      <c r="C55" t="s">
-        <v>245</v>
-      </c>
-      <c r="D55" t="s">
-        <v>244</v>
-      </c>
-      <c r="E55" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" t="s">
-        <v>244</v>
-      </c>
-      <c r="C56" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" t="s">
-        <v>245</v>
-      </c>
-      <c r="E56" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>244</v>
-      </c>
-      <c r="B57" t="s">
-        <v>244</v>
-      </c>
-      <c r="C57" t="s">
-        <v>245</v>
-      </c>
-      <c r="D57" t="s">
-        <v>245</v>
-      </c>
-      <c r="E57" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>244</v>
-      </c>
-      <c r="B58" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" t="s">
-        <v>245</v>
-      </c>
-      <c r="E58" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>244</v>
-      </c>
-      <c r="B59" t="s">
-        <v>244</v>
-      </c>
-      <c r="C59" t="s">
-        <v>245</v>
-      </c>
-      <c r="D59" t="s">
-        <v>245</v>
-      </c>
-      <c r="E59" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>244</v>
-      </c>
-      <c r="B60" t="s">
-        <v>245</v>
-      </c>
-      <c r="C60" t="s">
-        <v>245</v>
-      </c>
-      <c r="D60" t="s">
-        <v>245</v>
-      </c>
-      <c r="E60" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>244</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LIBA14/files/Q16.xlsx
+++ b/LIBA14/files/Q16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\LIBA14\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F292680-A6FB-460A-BBB5-D80629065B94}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B227174E-11B3-4BAE-B50D-E22127098CF3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="14352" windowHeight="4956" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="36" windowWidth="14352" windowHeight="4956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -934,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2345,7 +2345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E61"/>
     </sheetView>
   </sheetViews>
